--- a/Database Technologies/FBN database/Week02 - Data Dictionary FBN.xlsx
+++ b/Database Technologies/FBN database/Week02 - Data Dictionary FBN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\Codespace_challenges\Database Technologies\FBN database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282B8385-D177-42C4-B89A-263E1F20DFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44044825-52C2-4BF1-90D0-92B9D9B3DDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F186737C-EDA2-46CA-9043-4A9927A471E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F186737C-EDA2-46CA-9043-4A9927A471E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="139">
   <si>
     <t>attributes</t>
   </si>
@@ -73,18 +73,6 @@
   </si>
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>CUSTOMER</t>
-  </si>
-  <si>
-    <t>PAYMENT TYPES</t>
-  </si>
-  <si>
-    <t>PROMOTIONS</t>
   </si>
   <si>
     <t>employees</t>
@@ -127,9 +115,6 @@
     </r>
   </si>
   <si>
-    <t>customer_id</t>
-  </si>
-  <si>
     <t>customer first name</t>
   </si>
   <si>
@@ -151,9 +136,6 @@
     <t>TABLE: Employees</t>
   </si>
   <si>
-    <t>employee_id</t>
-  </si>
-  <si>
     <t>employee first name</t>
   </si>
   <si>
@@ -163,31 +145,12 @@
     <t xml:space="preserve"> insurance number</t>
   </si>
   <si>
-    <t>storeID</t>
-  </si>
-  <si>
     <t>is employee active or on maternity leave</t>
   </si>
   <si>
     <t>TABLE: orders</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">TABLE: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>store</t>
-    </r>
-  </si>
-  <si>
     <t>postCode</t>
   </si>
   <si>
@@ -200,24 +163,6 @@
     <t>barcode</t>
   </si>
   <si>
-    <t>TABLE: Item categories</t>
-  </si>
-  <si>
-    <t>category name</t>
-  </si>
-  <si>
-    <t>TABLE: payment method</t>
-  </si>
-  <si>
-    <t>paymentMethod name</t>
-  </si>
-  <si>
-    <t>TABLE: payment status</t>
-  </si>
-  <si>
-    <t>paymentStatus name</t>
-  </si>
-  <si>
     <t>TABLE: order status</t>
   </si>
   <si>
@@ -251,24 +196,12 @@
     <t>order status unique id</t>
   </si>
   <si>
-    <t>payment status unique id</t>
-  </si>
-  <si>
     <t xml:space="preserve">payment status name, which will be used in Order </t>
   </si>
   <si>
     <t>Submitted, Failed, Successful</t>
   </si>
   <si>
-    <t>payment method unique id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">payment method name, which will be used in Order </t>
-  </si>
-  <si>
-    <t>Cash, Credit Card, PayPal</t>
-  </si>
-  <si>
     <t>roles of employees working in a store</t>
   </si>
   <si>
@@ -278,12 +211,6 @@
     <t>unique role id</t>
   </si>
   <si>
-    <t>paymentStatus_id(PK)</t>
-  </si>
-  <si>
-    <t>paymentMethod_id(PK)</t>
-  </si>
-  <si>
     <t>role_id(PK)</t>
   </si>
   <si>
@@ -305,24 +232,12 @@
     <t>could be also a separate instanse for training locations or store ID</t>
   </si>
   <si>
-    <t>unique category id</t>
-  </si>
-  <si>
-    <t>Food, Drink, Supplement</t>
-  </si>
-  <si>
     <t>training_id(PK)</t>
   </si>
   <si>
-    <t>category_id(PK)</t>
-  </si>
-  <si>
     <t>item_id(PK)</t>
   </si>
   <si>
-    <t>category_id(FK)</t>
-  </si>
-  <si>
     <t>reference to category id (1-1 relation)</t>
   </si>
   <si>
@@ -371,12 +286,6 @@
     <t>could be as a separate instance</t>
   </si>
   <si>
-    <t>paymentMethod_id(FK)</t>
-  </si>
-  <si>
-    <t>default customer payment method</t>
-  </si>
-  <si>
     <t xml:space="preserve">employee unique ID number </t>
   </si>
   <si>
@@ -464,9 +373,6 @@
     <t>24/05/2024  18-30</t>
   </si>
   <si>
-    <t>paymentStatusID (FK)</t>
-  </si>
-  <si>
     <t xml:space="preserve">status id of order payment </t>
   </si>
   <si>
@@ -495,6 +401,72 @@
   </si>
   <si>
     <t xml:space="preserve">email </t>
+  </si>
+  <si>
+    <t>customer_id (PK)</t>
+  </si>
+  <si>
+    <t>employee_id (PK)</t>
+  </si>
+  <si>
+    <t>storeID (PK)</t>
+  </si>
+  <si>
+    <t>TABLE: payment</t>
+  </si>
+  <si>
+    <t>payment_id(PK)</t>
+  </si>
+  <si>
+    <t>payment unique id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payment amount </t>
+  </si>
+  <si>
+    <t>paymentAmount</t>
+  </si>
+  <si>
+    <t>paymentMethod_id (FK)</t>
+  </si>
+  <si>
+    <t>paymentStatus</t>
+  </si>
+  <si>
+    <t>method which a payment was done</t>
+  </si>
+  <si>
+    <t>Credit Card, PayPal</t>
+  </si>
+  <si>
+    <t>paymentID (FK)</t>
+  </si>
+  <si>
+    <t>EH11EH</t>
+  </si>
+  <si>
+    <t>CUSTOMERS</t>
+  </si>
+  <si>
+    <t>PAYMENT</t>
+  </si>
+  <si>
+    <t>ORDER STATUS</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+  </si>
+  <si>
+    <t>item category</t>
+  </si>
+  <si>
+    <t>TABLE: store</t>
   </si>
 </sst>
 </file>
@@ -592,7 +564,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -614,27 +586,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -953,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A324CAB2-490B-426D-AB2D-B48BBA878142}">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -971,8 +939,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>51</v>
+      <c r="A1" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1001,17 +969,17 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>58</v>
+      <c r="A3" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5">
-        <v>50</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>61</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="3" t="s">
@@ -1019,8 +987,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>52</v>
+      <c r="A4" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -1028,19 +996,19 @@
       <c r="C4" s="5">
         <v>50</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>60</v>
+      <c r="D4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>49</v>
+      <c r="A6" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1069,332 +1037,358 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>71</v>
+      <c r="A8" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8" s="5">
-        <v>50</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>62</v>
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>50</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="C9" s="5">
         <v>50</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>50</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5">
+        <v>50</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5">
+        <v>50</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="5">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="5">
+        <v>100</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="5">
+        <v>150</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="5">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="E28" s="5"/>
+      <c r="F28" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C29" s="5">
+        <v>100</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="5">
         <v>50</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="5">
-        <v>50</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="5">
-        <v>50</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="5">
-        <v>50</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="5">
-        <v>50</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="5">
-        <v>100</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="5">
-        <v>150</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>5</v>
+      <c r="D30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>83</v>
+      <c r="A31" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>6</v>
@@ -1402,301 +1396,332 @@
       <c r="C31" s="5">
         <v>50</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="5"/>
+      <c r="D31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="3">
+        <v>192038173</v>
+      </c>
       <c r="F31" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="5">
-        <v>50</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B34" s="3"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="C34" s="3"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3">
+        <v>10</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="3">
         <v>50</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="5"/>
+      <c r="D37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="F37" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="5">
-        <v>100</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>89</v>
+      <c r="C38" s="3">
+        <v>50</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="5">
-        <v>50</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E39" s="5"/>
+      <c r="C39" s="3">
+        <v>100</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="F39" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
-        <v>44</v>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="3">
         <v>50</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" s="9">
-        <v>192038173</v>
+      <c r="D40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3">
+        <v>50</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="3">
+        <v>50</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3">
+        <v>50</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B47" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F47" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="3" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="3">
+        <v>10</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
-        <v>25</v>
+      <c r="C49" s="3">
+        <v>50</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="3">
-        <v>50</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>121</v>
+        <v>9</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="10" t="s">
-        <v>26</v>
+    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C51" s="3">
-        <v>50</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>91</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
-        <v>27</v>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>6</v>
@@ -1704,39 +1729,37 @@
       <c r="C52" s="3">
         <v>50</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>92</v>
+      <c r="D52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
-        <v>28</v>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="9">
-        <v>100</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>93</v>
-      </c>
+      <c r="C53" s="3">
+        <v>50</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>6</v>
@@ -1745,16 +1768,14 @@
         <v>50</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>94</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E54" s="3"/>
       <c r="F54" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>30</v>
       </c>
@@ -1764,206 +1785,211 @@
       <c r="C55" s="3">
         <v>50</v>
       </c>
-      <c r="D55" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E55" s="9"/>
+      <c r="D55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="3">
+        <v>10</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="3">
+        <v>10</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="3">
+        <v>10</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C59" s="3">
         <v>50</v>
       </c>
-      <c r="D56" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="D59" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="3">
-        <v>50</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="3">
-        <v>50</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E58" s="16"/>
-      <c r="F58" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F59" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="1"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="1"/>
       <c r="E61" s="3"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B63" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C63" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D63" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E63" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F63" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="3">
-        <v>50</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="10" t="s">
-        <v>34</v>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C64" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="10" t="s">
-        <v>35</v>
+      <c r="A65" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="3">
         <v>10</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E65" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="3">
+        <v>10</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="9">
-        <v>100</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B67" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C67" s="3">
-        <v>50</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>106</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D67" s="1"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
         <v>7</v>
@@ -1971,46 +1997,56 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B68" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C68" s="3">
         <v>50</v>
       </c>
-      <c r="D68" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E68" s="3"/>
+      <c r="D68" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="F68" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C69" s="3">
-        <v>50</v>
-      </c>
-      <c r="D69" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E69" s="3"/>
       <c r="F69" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B70" s="3"/>
+        <v>109</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C70" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3" t="s">
@@ -2019,498 +2055,238 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B71" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C71" s="3">
+        <v>10</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="3">
+        <v>10</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="3">
+        <v>100</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="3">
         <v>50</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3">
+      <c r="D77" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="3">
         <v>50</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D78" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="3">
+        <v>50</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E72" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3">
-        <v>50</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E73" s="3">
-        <v>2</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3">
-        <v>50</v>
-      </c>
-      <c r="D74" t="s">
-        <v>113</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="3">
-        <v>50</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="3">
-        <v>50</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F81" s="3" t="s">
+      <c r="E79" s="3"/>
+      <c r="F79" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="3">
-        <v>50</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A82" s="1"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" s="3">
-        <v>50</v>
-      </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" s="3">
-        <v>50</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A84" s="1"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85" s="3">
-        <v>50</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A85" s="1"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86" s="3">
-        <v>50</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="1"/>
       <c r="E86" s="3"/>
-      <c r="F86" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="3">
-        <v>50</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E87" s="4"/>
-      <c r="F87" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="1"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="1"/>
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A90" s="1"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C91" s="3">
-        <v>50</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A91" s="1"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C92" s="3">
-        <v>100</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="A92" s="1"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="1"/>
       <c r="E92" s="3"/>
-      <c r="F92" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="F92" s="3"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C93" s="3">
-        <v>50</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>141</v>
-      </c>
+      <c r="A93" s="1"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="1"/>
       <c r="E93" s="3"/>
-      <c r="F93" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="F93" s="3"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C94" s="3">
-        <v>50</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="A94" s="1"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="1"/>
       <c r="E94" s="3"/>
-      <c r="F94" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C95" s="3">
-        <v>50</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="1"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="1"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="1"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="1"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="1"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="1"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="1"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="1"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="1"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
+      <c r="F94" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2520,11 +2296,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2E0309-5284-426F-9FA4-438F638CCA00}">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2533,62 +2307,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>15</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>16</v>
+      <c r="A6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>23</v>
+      <c r="A14" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/Database Technologies/FBN database/Week02 - Data Dictionary FBN.xlsx
+++ b/Database Technologies/FBN database/Week02 - Data Dictionary FBN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\Codespace_challenges\Database Technologies\FBN database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44044825-52C2-4BF1-90D0-92B9D9B3DDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74573D16-1235-4525-BE5C-B66449125D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F186737C-EDA2-46CA-9043-4A9927A471E4}"/>
+    <workbookView xWindow="11688" yWindow="1032" windowWidth="11016" windowHeight="8976" xr2:uid="{F186737C-EDA2-46CA-9043-4A9927A471E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="138">
   <si>
     <t>attributes</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>default</t>
   </si>
   <si>
     <t>date</t>
@@ -181,9 +178,6 @@
     <t>training name</t>
   </si>
   <si>
-    <t>location</t>
-  </si>
-  <si>
     <t>orderStatus_id (PK)</t>
   </si>
   <si>
@@ -427,9 +421,6 @@
     <t>paymentAmount</t>
   </si>
   <si>
-    <t>paymentMethod_id (FK)</t>
-  </si>
-  <si>
     <t>paymentStatus</t>
   </si>
   <si>
@@ -467,6 +458,12 @@
   </si>
   <si>
     <t>TABLE: store</t>
+  </si>
+  <si>
+    <t>paymentMethod</t>
+  </si>
+  <si>
+    <t>training location</t>
   </si>
 </sst>
 </file>
@@ -564,7 +561,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -600,9 +597,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -923,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A324CAB2-490B-426D-AB2D-B48BBA878142}">
   <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -940,7 +934,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -970,7 +964,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -979,7 +973,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="3" t="s">
@@ -988,7 +982,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -997,10 +991,10 @@
         <v>50</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>7</v>
@@ -1008,7 +1002,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1038,7 +1032,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
@@ -1047,7 +1041,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="3" t="s">
@@ -1056,16 +1050,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C9" s="5">
         <v>50</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="3" t="s">
@@ -1074,7 +1068,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>6</v>
@@ -1083,10 +1077,10 @@
         <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>7</v>
@@ -1094,7 +1088,7 @@
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>6</v>
@@ -1103,10 +1097,10 @@
         <v>50</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>7</v>
@@ -1124,7 +1118,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1154,7 +1148,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>9</v>
@@ -1163,10 +1157,10 @@
         <v>10</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>7</v>
@@ -1174,7 +1168,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>6</v>
@@ -1183,10 +1177,10 @@
         <v>50</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>7</v>
@@ -1202,7 +1196,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1232,19 +1226,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C22" s="5">
         <v>10</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>7</v>
@@ -1252,7 +1246,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>6</v>
@@ -1261,10 +1255,10 @@
         <v>100</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>7</v>
@@ -1272,7 +1266,7 @@
     </row>
     <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>6</v>
@@ -1281,16 +1275,16 @@
         <v>150</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>58</v>
-      </c>
       <c r="F24" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1302,7 +1296,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1332,7 +1326,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>9</v>
@@ -1341,7 +1335,7 @@
         <v>10</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="3" t="s">
@@ -1350,7 +1344,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>6</v>
@@ -1359,10 +1353,10 @@
         <v>100</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>7</v>
@@ -1370,7 +1364,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>6</v>
@@ -1379,7 +1373,7 @@
         <v>50</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="3" t="s">
@@ -1388,7 +1382,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>6</v>
@@ -1397,7 +1391,7 @@
         <v>50</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E31" s="3">
         <v>192038173</v>
@@ -1408,7 +1402,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1438,7 +1432,7 @@
     </row>
     <row r="36" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>9</v>
@@ -1447,10 +1441,10 @@
         <v>10</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>7</v>
@@ -1458,7 +1452,7 @@
     </row>
     <row r="37" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>6</v>
@@ -1467,10 +1461,10 @@
         <v>50</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>7</v>
@@ -1478,7 +1472,7 @@
     </row>
     <row r="38" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>6</v>
@@ -1487,10 +1481,10 @@
         <v>50</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>7</v>
@@ -1498,7 +1492,7 @@
     </row>
     <row r="39" spans="1:7" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>6</v>
@@ -1507,10 +1501,10 @@
         <v>100</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>7</v>
@@ -1518,7 +1512,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>6</v>
@@ -1527,10 +1521,10 @@
         <v>50</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>7</v>
@@ -1538,7 +1532,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>6</v>
@@ -1547,7 +1541,7 @@
         <v>50</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -1565,7 +1559,7 @@
         <v>50</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="3" t="s">
@@ -1574,7 +1568,7 @@
     </row>
     <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>6</v>
@@ -1583,16 +1577,16 @@
         <v>50</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -1613,7 +1607,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1643,7 +1637,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>9</v>
@@ -1652,10 +1646,10 @@
         <v>10</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>7</v>
@@ -1663,7 +1657,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>6</v>
@@ -1672,10 +1666,10 @@
         <v>50</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>7</v>
@@ -1683,19 +1677,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="C50" s="3">
+        <v>50</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>7</v>
@@ -1703,7 +1697,7 @@
     </row>
     <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>6</v>
@@ -1712,7 +1706,7 @@
         <v>100</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
@@ -1721,7 +1715,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>6</v>
@@ -1730,10 +1724,10 @@
         <v>50</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>7</v>
@@ -1741,7 +1735,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>6</v>
@@ -1750,7 +1744,7 @@
         <v>50</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
@@ -1768,7 +1762,7 @@
         <v>50</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3" t="s">
@@ -1777,7 +1771,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>6</v>
@@ -1786,7 +1780,7 @@
         <v>50</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
@@ -1795,7 +1789,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>9</v>
@@ -1804,10 +1798,10 @@
         <v>10</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>7</v>
@@ -1815,7 +1809,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>9</v>
@@ -1824,10 +1818,10 @@
         <v>10</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>7</v>
@@ -1835,7 +1829,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>9</v>
@@ -1844,7 +1838,7 @@
         <v>10</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E58" s="3">
         <v>2</v>
@@ -1855,7 +1849,7 @@
     </row>
     <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>6</v>
@@ -1864,10 +1858,10 @@
         <v>50</v>
       </c>
       <c r="D59" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>7</v>
@@ -1891,7 +1885,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1921,7 +1915,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>9</v>
@@ -1930,10 +1924,10 @@
         <v>10</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>7</v>
@@ -1941,7 +1935,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>9</v>
@@ -1950,10 +1944,10 @@
         <v>10</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>7</v>
@@ -1961,7 +1955,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>9</v>
@@ -1970,10 +1964,10 @@
         <v>10</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>7</v>
@@ -1981,7 +1975,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>9</v>
@@ -1997,19 +1991,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C68" s="3">
         <v>50</v>
       </c>
       <c r="D68" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>7</v>
@@ -2017,7 +2011,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>9</v>
@@ -2026,10 +2020,10 @@
         <v>10</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>7</v>
@@ -2037,7 +2031,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>9</v>
@@ -2046,7 +2040,7 @@
         <v>10</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3" t="s">
@@ -2055,7 +2049,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>9</v>
@@ -2064,7 +2058,7 @@
         <v>10</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="3" t="s">
@@ -2073,7 +2067,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2103,7 +2097,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>9</v>
@@ -2112,10 +2106,10 @@
         <v>10</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>7</v>
@@ -2123,7 +2117,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>6</v>
@@ -2132,7 +2126,7 @@
         <v>100</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3" t="s">
@@ -2141,7 +2135,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>6</v>
@@ -2150,7 +2144,7 @@
         <v>50</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3" t="s">
@@ -2159,7 +2153,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>6</v>
@@ -2168,7 +2162,7 @@
         <v>50</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3" t="s">
@@ -2186,7 +2180,7 @@
         <v>50</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3" t="s">
@@ -2307,62 +2301,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2371,15 +2365,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D64F00304719264D85478B6C57A341CD" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="db4e11acb875dde193c8132970e90170">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="823a6a77-3fa8-4256-ba97-a8b1fde95d14" xmlns:ns3="f4faadfc-5802-4a08-84d6-cea611b28b40" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbcc48fa44768aa1e7914d6def4510e0" ns2:_="" ns3:_="">
     <xsd:import namespace="823a6a77-3fa8-4256-ba97-a8b1fde95d14"/>
@@ -2580,15 +2565,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B000C55E-34BF-4C72-8C11-0878203B1653}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9041E8D6-3A19-4E0F-9D98-0D54E2EA8570}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2605,4 +2591,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B000C55E-34BF-4C72-8C11-0878203B1653}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>